--- a/biology/Médecine/Charles_Foix/Charles_Foix.xlsx
+++ b/biology/Médecine/Charles_Foix/Charles_Foix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Foix, né le 28 février 1882 à Salies-de-Béarn, près de Bayonne, et mort le 21 mars 1927 dans le 14e arrondissement de Paris[2], est un neurologue et poète français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Foix, né le 28 février 1882 à Salies-de-Béarn, près de Bayonne, et mort le 21 mars 1927 dans le 14e arrondissement de Paris, est un neurologue et poète français.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Foix étudie la médecine à l'université de Paris. Il est un élève de Pierre Marie (1853-1940) et d'Achille Souques à la Salpêtrière. Il devient interne en 1906 puis médecin des hôpitaux en 1919 et agrégé en 1923.
 À partir de 1923, il travaille à l'hôpital d'Ivry qui portera son nom en son hommage, ainsi que le groupe hospitalier de la Pitié-Salpêtrière - Charles-Foix.
 Également membre de l'Académie de Béarn, il a publié les poèmes Une Trilogie, Les Bassarides, Prométhée ainsi que la tragédie David.
-Il meurt brutalement, « emporté en quelques heures » selon son contemporain, collègue et ami Théophile Alajouanine[3], à l'âge de 45 ans.
+Il meurt brutalement, « emporté en quelques heures » selon son contemporain, collègue et ami Théophile Alajouanine, à l'âge de 45 ans.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Contribution à l'étude de l'apraxie idéo-motrice, de son anatomie pathologique et de ses rapports avec les syndromes, qui ordinairement, l'accompagnent », Revue neurologique, 1916, p. 283
 « Les lésions anatomiques de la maladie de Parkinson », Revue neurologique, Paris, 1921, n° 28, pp. 593-600.
